--- a/Doc/TB_JDT_ChatillonJeremie.xlsx
+++ b/Doc/TB_JDT_ChatillonJeremie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremie Chatillon\Documents\HEIG\BA-06\TB\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremie Chatillon\Documents\HEIG\BA-06\TB\TB_CleanVotingMap\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371643D-2B68-46D4-8F68-4DA87E96C264}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5419A2-8DA5-4040-83EF-B1B174759F59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C343E9A2-2C4A-4DF4-9DD2-3B61DD726AAF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>temps passé</t>
   </si>
@@ -64,6 +64,13 @@
   <si>
     <t>RDV avec M. Donini, Scéance à Archanite
 Création du JDT / planification / cahier des charges</t>
+  </si>
+  <si>
+    <t>RDV avec M. Donini. Création du JDT, et du CDC.</t>
+  </si>
+  <si>
+    <t>Finalisation du JDT et fin d'écriture du CDC. 
+Scéance à Archanite. Reflexions sur la tournure du projet (modélisation backend).</t>
   </si>
 </sst>
 </file>
@@ -99,16 +106,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -125,7 +143,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A231F2-989B-4BE5-93DB-F2E1B8610796}" name="Tableau1" displayName="Tableau1" ref="A1:E1048576" totalsRowShown="0">
   <autoFilter ref="A1:E1048576" xr:uid="{9F380FF5-D3BC-4F99-B688-ADAE3F348F12}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1ADD4ECF-DA42-4959-B37B-E327BC9736B2}" name="Jour (de)"/>
+    <tableColumn id="1" xr3:uid="{1ADD4ECF-DA42-4959-B37B-E327BC9736B2}" name="Jour (de)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{AF319C91-1027-450E-A59E-4600AE18FB89}" name="Jour (à)"/>
     <tableColumn id="3" xr3:uid="{A9CF84A8-87E4-48AC-B4F3-4C45EE28EC26}" name="temps passé"/>
     <tableColumn id="4" xr3:uid="{BA5A26AD-468C-4919-83E7-2C5BF1301D41}" name="Tâches"/>
@@ -432,20 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4903895B-40AE-48E6-9143-6D8661BB6F3A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
@@ -462,7 +481,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -476,7 +495,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
@@ -484,6 +503,31 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43519</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43524</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43525</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
